--- a/기획서/콘텐츠 관련/기초기획서(181219).xlsx
+++ b/기획서/콘텐츠 관련/기초기획서(181219).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\리볼트데이 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\기획서\콘텐츠 관련\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822B5C53-97D7-4DEC-ADC9-3D543F2AFF57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33159ACF-C800-4379-B253-240235652DC4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" firstSheet="2" activeTab="4" xr2:uid="{4FDB079C-D219-43E0-BABC-623711B061EB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="2" xr2:uid="{4FDB079C-D219-43E0-BABC-623711B061EB}"/>
   </bookViews>
   <sheets>
     <sheet name="게임의 목적과 메카닉스" sheetId="3" r:id="rId1"/>
@@ -609,10 +609,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>근미래 어드밴쳐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2D/3인칭 시점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -641,10 +637,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동 시 캐릭터 위치가 확대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그리고 손모양 UI사 출력됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -745,10 +737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ver.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>초상화로 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1062,6 +1050,18 @@
   </si>
   <si>
     <t xml:space="preserve">추리 이슈를 선택 시, 추리 씬이 팝업 되면서 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근미래 어드밴쳐/비쥬얼 노벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1094,7 +1094,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1117,6 +1117,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1528,7 +1534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1561,60 +1567,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1670,6 +1622,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1679,19 +1649,58 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1706,17 +1715,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1796,6 +1802,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - 강조색3" xfId="1" builtinId="40"/>
@@ -2306,292 +2315,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="직사각형 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00178970-9710-4B7C-AE92-218E71643E4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7962900" y="4648200"/>
-          <a:ext cx="2638425" cy="2209800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="직선 연결선 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA93C4E5-5247-44AB-981E-E5953A0E8CAD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10620375" y="4133850"/>
-          <a:ext cx="609600" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="직선 연결선 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC4CFDE0-3F13-4AC8-9186-90BF2F6E452E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10591800" y="6810375"/>
-          <a:ext cx="676275" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="직선 연결선 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B0015B-C95B-47A6-A01D-C0795BC3EF15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7553325" y="4314825"/>
-          <a:ext cx="428625" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="직선 연결선 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9520B629-98D7-464B-A217-7F59C4DECE16}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7496175" y="6838950"/>
-          <a:ext cx="476250" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -6065,15 +5788,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>279861</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>78278</xdr:rowOff>
+      <xdr:colOff>16092</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>148616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>233228</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>18951</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>637675</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>89289</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6102,7 +5825,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6293799" y="9222278"/>
+          <a:off x="6030030" y="9069878"/>
           <a:ext cx="1958014" cy="3949965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6114,16 +5837,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>109822</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584607</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>166625</xdr:rowOff>
+      <xdr:rowOff>55256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57645</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>107992</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>532430</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>219362</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6152,8 +5875,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4099931" y="9033534"/>
-          <a:ext cx="1942878" cy="3931476"/>
+          <a:off x="3925684" y="8976518"/>
+          <a:ext cx="1952469" cy="3950659"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6165,15 +5888,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>27569</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>112221</xdr:rowOff>
+      <xdr:colOff>211946</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>5862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>457892</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>96983</xdr:rowOff>
+      <xdr:colOff>217569</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6201,8 +5924,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="692587" y="9200803"/>
-          <a:ext cx="3090396" cy="3531525"/>
+          <a:off x="880161" y="9372600"/>
+          <a:ext cx="2678485" cy="3062921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6264,15 +5987,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>449677</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>6332</xdr:rowOff>
+      <xdr:colOff>74537</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>105508</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>397501</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>169372</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>372070</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>69727</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6301,8 +6024,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8429895" y="9316587"/>
-          <a:ext cx="1942879" cy="3931476"/>
+          <a:off x="8093122" y="9249508"/>
+          <a:ext cx="1633963" cy="3305296"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6414,15 +6137,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>108758</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>144308</xdr:rowOff>
+      <xdr:colOff>26697</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>191200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>527858</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>94097</xdr:rowOff>
+      <xdr:colOff>445797</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>140989</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6451,8 +6174,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7423958" y="5242781"/>
-          <a:ext cx="2414155" cy="2831535"/>
+          <a:off x="7377066" y="5771385"/>
+          <a:ext cx="2423746" cy="2845389"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6464,15 +6187,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>160024</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>163936</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>122905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>558664</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>91109</xdr:rowOff>
+      <xdr:colOff>253865</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>207319</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6501,8 +6224,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3521789" y="13404807"/>
-          <a:ext cx="3088051" cy="3513055"/>
+          <a:off x="3645877" y="13053459"/>
+          <a:ext cx="2621926" cy="2980014"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6514,15 +6237,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>94260</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>36071</xdr:rowOff>
+      <xdr:colOff>193906</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>211917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>98622</xdr:rowOff>
+      <xdr:colOff>594945</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>51729</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6551,8 +6274,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="759278" y="13336435"/>
-          <a:ext cx="2396094" cy="2722623"/>
+          <a:off x="862121" y="13142471"/>
+          <a:ext cx="2405686" cy="2735412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6864,7 +6587,7 @@
   <dimension ref="B1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6874,309 +6597,324 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="I4" t="s">
-        <v>176</v>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="I4" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="19"/>
+      <c r="C10" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="46"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="28"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
     </row>
     <row r="14" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="25"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
     </row>
     <row r="15" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
     </row>
     <row r="17" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="25"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="31"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="25"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="31"/>
     </row>
     <row r="25" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
     </row>
     <row r="26" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="17"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="49"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="18"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="39"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12" t="s">
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="18"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="39"/>
     </row>
     <row r="30" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="19"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
     <mergeCell ref="B18:G19"/>
     <mergeCell ref="B2:G4"/>
     <mergeCell ref="B12:O12"/>
@@ -7187,18 +6925,6 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E30:K30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7210,15 +6936,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9C461B-A25B-4497-98FF-B8CCBAD1342C}">
   <dimension ref="B2:W47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B2" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -7226,7 +6952,7 @@
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
       <c r="J2" s="50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K2" s="50"/>
       <c r="L2" s="50"/>
@@ -7276,177 +7002,175 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.4">
       <c r="U5" s="50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V5" s="50"/>
       <c r="W5" s="50"/>
     </row>
     <row r="6" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="U6" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V6" s="50"/>
       <c r="W6" s="50"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B8" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B8" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
       <c r="Q8" s="50" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="R8" s="50"/>
       <c r="S8" s="50"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B10" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B10" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
       <c r="M12" s="50" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N12" s="50"/>
       <c r="O12" s="50"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="18" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B19" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="55"/>
+        <v>203</v>
+      </c>
+      <c r="C19" s="56"/>
     </row>
     <row r="20" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="2:23" x14ac:dyDescent="0.4">
       <c r="H24" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="H25" s="29"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="31"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="H26" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="55"/>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="H25" s="23" t="s">
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="31"/>
+    </row>
+    <row r="27" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H27" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25"/>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="H26" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="25"/>
-    </row>
-    <row r="27" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H27" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="28"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
       <c r="T27" s="50" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="U27" s="50"/>
       <c r="V27" s="50"/>
@@ -7454,7 +7178,7 @@
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.4">
       <c r="T28" s="50" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U28" s="50"/>
       <c r="V28" s="50"/>
@@ -7462,7 +7186,7 @@
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.4">
       <c r="T30" s="50" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U30" s="50"/>
       <c r="V30" s="50"/>
@@ -7477,74 +7201,80 @@
     <row r="43" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="44" spans="9:23" x14ac:dyDescent="0.4">
       <c r="I44" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="55"/>
+        <v>202</v>
+      </c>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="56"/>
       <c r="T44" s="50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U44" s="50"/>
       <c r="V44" s="50"/>
       <c r="W44" s="50"/>
     </row>
     <row r="45" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I45" s="56" t="s">
+      <c r="I45" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="57"/>
-      <c r="N45" s="57"/>
-      <c r="O45" s="57"/>
-      <c r="P45" s="57"/>
-      <c r="Q45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="59"/>
       <c r="T45" s="50"/>
       <c r="U45" s="50"/>
       <c r="V45" s="50"/>
       <c r="W45" s="50"/>
     </row>
     <row r="46" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I46" s="56" t="s">
+      <c r="I46" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58"/>
+      <c r="Q46" s="59"/>
     </row>
     <row r="47" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I47" s="60" t="s">
+      <c r="I47" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="61"/>
-      <c r="Q47" s="62"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="T44:W45"/>
-    <mergeCell ref="T30:W31"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B2:G4"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B12:G12"/>
     <mergeCell ref="I47:Q47"/>
     <mergeCell ref="J2:Q4"/>
     <mergeCell ref="H24:K24"/>
@@ -7556,18 +7286,12 @@
     <mergeCell ref="I45:Q45"/>
     <mergeCell ref="I44:Q44"/>
     <mergeCell ref="I46:Q46"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B2:G4"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="T44:W45"/>
+    <mergeCell ref="T30:W31"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="T28:W28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7579,7 +7303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94A4C58-65D2-4065-8D6A-0F7D1B50EE2F}">
   <dimension ref="C2:S53"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
       <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
@@ -7625,19 +7349,19 @@
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.4">
       <c r="N6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.4">
       <c r="N7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.4">
       <c r="M10" s="50"/>
       <c r="N10" s="50"/>
       <c r="O10" s="50" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P10" s="50"/>
       <c r="Q10" s="50"/>
@@ -7648,7 +7372,7 @@
       <c r="M11" s="50"/>
       <c r="N11" s="50"/>
       <c r="O11" s="50" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P11" s="50"/>
       <c r="Q11" s="50"/>
@@ -7684,42 +7408,42 @@
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.4">
       <c r="P16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.4">
       <c r="P17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.4">
       <c r="P18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.4">
       <c r="P25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.4">
       <c r="P26" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="3:18" x14ac:dyDescent="0.4">
       <c r="P27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="3:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="P28" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="3:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C29" s="66" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D29" s="67"/>
       <c r="E29" s="67"/>
@@ -7728,7 +7452,7 @@
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C30" s="63" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D30" s="64"/>
       <c r="E30" s="64"/>
@@ -7747,274 +7471,285 @@
       <c r="R30" s="65"/>
     </row>
     <row r="31" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="69" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F31" s="69"/>
       <c r="G31" s="69"/>
       <c r="H31" s="69"/>
       <c r="I31" s="69"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12" t="s">
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="18"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="39"/>
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="70" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F32" s="70"/>
       <c r="G32" s="70"/>
       <c r="H32" s="70"/>
       <c r="I32" s="70"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="25"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="31"/>
     </row>
     <row r="33" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="70" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F33" s="70"/>
       <c r="G33" s="70"/>
       <c r="H33" s="70"/>
       <c r="I33" s="70"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="25"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="31"/>
     </row>
     <row r="34" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="70" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F34" s="70"/>
       <c r="G34" s="70"/>
       <c r="H34" s="70"/>
       <c r="I34" s="70"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="25"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="31"/>
     </row>
     <row r="35" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="18"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="39"/>
     </row>
     <row r="36" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12" t="s">
+      <c r="C36" s="45"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="39"/>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C37" s="45"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="31"/>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C38" s="45"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="31"/>
+    </row>
+    <row r="39" spans="3:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C39" s="46"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="18"/>
-    </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="25"/>
-    </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="25"/>
-    </row>
-    <row r="39" spans="3:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="28"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="34"/>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K42" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="3:18" x14ac:dyDescent="0.4">
       <c r="D43" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L43" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="3:18" x14ac:dyDescent="0.4">
       <c r="D44" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L44" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="3:18" x14ac:dyDescent="0.4">
       <c r="L45" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="3:18" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="3:18" x14ac:dyDescent="0.4">
       <c r="D48" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L48" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D49" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L49" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="4:12" x14ac:dyDescent="0.4">
       <c r="L50" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D51" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D52" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D53" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C35:R35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="C36:D39"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="J36:K39"/>
     <mergeCell ref="C2:L4"/>
     <mergeCell ref="L31:R31"/>
     <mergeCell ref="J31:K34"/>
@@ -8031,17 +7766,6 @@
     <mergeCell ref="L34:R34"/>
     <mergeCell ref="L33:R33"/>
     <mergeCell ref="L32:R32"/>
-    <mergeCell ref="C35:R35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="C36:D39"/>
-    <mergeCell ref="L36:R36"/>
-    <mergeCell ref="L37:R37"/>
-    <mergeCell ref="L38:R38"/>
-    <mergeCell ref="L39:R39"/>
-    <mergeCell ref="J36:K39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8067,157 +7791,157 @@
     <row r="2" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B2" s="10"/>
       <c r="C2" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="55"/>
+        <v>229</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="18"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12" t="s">
-        <v>226</v>
+      <c r="C4" s="45"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38" t="s">
+        <v>223</v>
       </c>
       <c r="I4" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J4" s="71"/>
       <c r="K4" s="71"/>
       <c r="L4" s="72"/>
       <c r="N4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="71"/>
       <c r="J5" s="71"/>
       <c r="K5" s="71"/>
       <c r="L5" s="72"/>
       <c r="N5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="71"/>
       <c r="J6" s="71"/>
       <c r="K6" s="71"/>
       <c r="L6" s="72"/>
       <c r="N6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="71"/>
       <c r="J7" s="71"/>
       <c r="K7" s="71"/>
       <c r="L7" s="72"/>
       <c r="N7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="71"/>
       <c r="J8" s="71"/>
       <c r="K8" s="71"/>
       <c r="L8" s="72"/>
       <c r="N8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
-        <v>228</v>
+      <c r="C9" s="45"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38" t="s">
+        <v>225</v>
       </c>
       <c r="I9" s="71" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J9" s="71"/>
       <c r="K9" s="71"/>
       <c r="L9" s="72"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="71"/>
       <c r="J10" s="71"/>
       <c r="K10" s="71"/>
       <c r="L10" s="72"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="71"/>
       <c r="J11" s="71"/>
       <c r="K11" s="71"/>
       <c r="L11" s="72"/>
     </row>
     <row r="12" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="73"/>
       <c r="J12" s="73"/>
       <c r="K12" s="73"/>
@@ -8225,7 +7949,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C14" s="50" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
@@ -8394,147 +8118,147 @@
       <c r="L27" s="50"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C30" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C31" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C32" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C30" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C31" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C32" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
     </row>
     <row r="35" spans="5:12" x14ac:dyDescent="0.4">
       <c r="K35" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="5:12" x14ac:dyDescent="0.4">
       <c r="K36" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.4">
       <c r="E37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="5:12" x14ac:dyDescent="0.4">
       <c r="L39" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.4">
       <c r="H46" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="4:15" x14ac:dyDescent="0.4">
       <c r="N49" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="4:15" x14ac:dyDescent="0.4">
       <c r="N50" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="4:15" x14ac:dyDescent="0.4">
       <c r="N51" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D54" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D55" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I55" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D56" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -8562,7 +8286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921B7072-58AE-4C32-BF44-E0A2C12922F9}">
   <dimension ref="B2:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -8570,7 +8294,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B2" s="50" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -8596,7 +8320,7 @@
       <c r="K3" s="50"/>
       <c r="L3" s="50"/>
       <c r="O3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
@@ -8607,16 +8331,16 @@
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
       <c r="H4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
       <c r="L4" s="50"/>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
@@ -8627,14 +8351,14 @@
       <c r="F5" s="50"/>
       <c r="G5" s="50"/>
       <c r="H5" s="50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I5" s="50"/>
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
       <c r="L5" s="50"/>
       <c r="O5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
@@ -8650,7 +8374,7 @@
       <c r="K6" s="50"/>
       <c r="L6" s="50"/>
       <c r="O6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
@@ -8679,7 +8403,7 @@
       <c r="K8" s="50"/>
       <c r="L8" s="50"/>
       <c r="O8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
@@ -8695,7 +8419,7 @@
       <c r="K9" s="50"/>
       <c r="L9" s="50"/>
       <c r="O9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
@@ -8711,7 +8435,7 @@
       <c r="K10" s="50"/>
       <c r="L10" s="50"/>
       <c r="O10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
@@ -8740,7 +8464,7 @@
       <c r="K12" s="50"/>
       <c r="L12" s="50"/>
       <c r="O12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
@@ -8756,7 +8480,7 @@
       <c r="K13" s="50"/>
       <c r="L13" s="50"/>
       <c r="O13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
@@ -8785,17 +8509,17 @@
       <c r="K15" s="50"/>
       <c r="L15" s="50"/>
       <c r="O15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -8849,26 +8573,26 @@
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="22"/>
+      <c r="C6" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="44"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
@@ -8877,148 +8601,148 @@
       <c r="C7" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="53"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="62"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="25"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="31"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="25"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="31"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="25"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="31"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="25"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="31"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="25"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="31"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B13" s="9" t="s">
@@ -9027,327 +8751,337 @@
       <c r="C13" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="53"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="62"/>
     </row>
     <row r="14" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="28"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="34"/>
     </row>
     <row r="15" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="23" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
     </row>
     <row r="24" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="17"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="49"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="25"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="31"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="25"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="31"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="25"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="31"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="25"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="31"/>
     </row>
     <row r="30" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="28"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C27:T27"/>
+    <mergeCell ref="C28:T28"/>
+    <mergeCell ref="C29:T29"/>
+    <mergeCell ref="C30:T30"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="B25:T25"/>
+    <mergeCell ref="C26:T26"/>
     <mergeCell ref="C19:K19"/>
     <mergeCell ref="B3:G4"/>
     <mergeCell ref="C6:T6"/>
@@ -9362,16 +9096,6 @@
     <mergeCell ref="B16:K16"/>
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C27:T27"/>
-    <mergeCell ref="C28:T28"/>
-    <mergeCell ref="C29:T29"/>
-    <mergeCell ref="C30:T30"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="B25:T25"/>
-    <mergeCell ref="C26:T26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9381,30 +9105,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840EDFFE-FFEE-443A-966C-325402643F07}">
-  <dimension ref="B1:O41"/>
+  <dimension ref="B1:O73"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="83"/>
@@ -9421,172 +9145,172 @@
       <c r="M3" s="85"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="18"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="18"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="18"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="18"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="18"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="18"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="18"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="18"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="39"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="18"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="18"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="18"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="18"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="39"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="86"/>
@@ -9622,19 +9346,19 @@
       <c r="B18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="19"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B22" s="82" t="s">
@@ -9654,13 +9378,827 @@
       <c r="N22" s="82"/>
       <c r="O22" s="82"/>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.4">
-      <c r="N41">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B23" s="50">
         <v>0</v>
       </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="50"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="50"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="50"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="50"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="50"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="50"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="50"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="50"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="50"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="50"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="50"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="50"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="50"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="50"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="50"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="50"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="50"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="50"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="50"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B66" s="50"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="50"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="50"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B67" s="50"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="50"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="50"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="50"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B69" s="50"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="50"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="50"/>
+      <c r="M70" s="50"/>
+      <c r="N70" s="50"/>
+      <c r="O70" s="50"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B71" s="50"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="50"/>
+      <c r="M71" s="50"/>
+      <c r="N71" s="50"/>
+      <c r="O71" s="50"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="50"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B73" s="50"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="50"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B23:O73"/>
     <mergeCell ref="B22:O22"/>
     <mergeCell ref="B2:M3"/>
     <mergeCell ref="B4:D16"/>
@@ -9752,7 +10290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0809319-B44D-402C-B62F-92E33EF7EB13}">
   <dimension ref="B1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -9782,13 +10320,13 @@
     </row>
     <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
@@ -10015,13 +10553,13 @@
     </row>
     <row r="21" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
